--- a/cta策略/result/螺纹/BIAS_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/BIAS_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.06036705069324499</v>
+        <v>0.0466625949104047</v>
       </c>
       <c r="D2">
-        <v>0.1161028961709352</v>
+        <v>0.03721129050345768</v>
       </c>
       <c r="E2">
-        <v>0.2051926917027863</v>
+        <v>0.1898620513265614</v>
       </c>
       <c r="F2">
-        <v>0.1875</v>
+        <v>0.4705882352941176</v>
       </c>
     </row>
   </sheetData>
